--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-humanname.xlsx
@@ -259,7 +259,7 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|温度|ニックネーム|匿名|古い|乙女 / usual | official | temp | nickname | anonymous | old | maiden</t>
+    <t>通常|公式|一時的|ニックネーム|匿名|古い|未婚女性 / usual | official | temp | nickname | anonymous | old | maiden</t>
   </si>
   <si>
     <t>この名前の目的を特定します。 / Identifies the purpose for this name.</t>
@@ -406,7 +406,7 @@
     <t>この名前が指定者に対して有効である期間を示します。 / Indicates the period of time when this name was valid for the named person.</t>
   </si>
   <si>
-    <t>名前を歴史的な文脈に配置できます。 / Allows names to be placed in historical context.</t>
+    <t>名前を履歴上の文脈に配置できます。 / Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>XPN.13 + XPN.14</t>
